--- a/data/DuplicateLead.xlsx
+++ b/data/DuplicateLead.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>UserName</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>Lak</t>
+  </si>
+  <si>
+    <t>8939878835</t>
   </si>
 </sst>
 </file>
@@ -89,7 +92,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -397,7 +400,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,8 +443,8 @@
       <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1">
-        <v>8939878835</v>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
